--- a/Benchmarks-results/Prometheus/matrix multiplication wykresy/matrixmul 1 CPU.xlsx
+++ b/Benchmarks-results/Prometheus/matrix multiplication wykresy/matrixmul 1 CPU.xlsx
@@ -211,25 +211,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="164193408"/>
-        <c:axId val="164194944"/>
+        <c:axId val="143810560"/>
+        <c:axId val="143812096"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="164193408"/>
+        <c:axId val="143810560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="164194944"/>
+        <c:crossAx val="143812096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="164194944"/>
+        <c:axId val="143812096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -237,7 +237,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="164193408"/>
+        <c:crossAx val="143810560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -250,7 +250,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -371,25 +371,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="164228480"/>
-        <c:axId val="166737024"/>
+        <c:axId val="131844736"/>
+        <c:axId val="131879296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="164228480"/>
+        <c:axId val="131844736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="166737024"/>
+        <c:crossAx val="131879296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="166737024"/>
+        <c:axId val="131879296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -397,7 +397,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.000000000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="164228480"/>
+        <c:crossAx val="131844736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -410,7 +410,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -420,16 +420,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>314324</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>438149</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -450,16 +450,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>314324</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>581024</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>133349</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>400049</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
